--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eng. Prince M\Desktop\NOTES\2. BDA\B8\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\machineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF8714-D68A-450D-BB43-E385644391C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$327</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="334">
   <si>
-    <t xml:space="preserve">SNAMES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUIZZES </t>
-  </si>
-  <si>
     <t>ASSIGNMENTS</t>
   </si>
   <si>
@@ -1024,12 +1019,18 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>SNAMES</t>
+  </si>
+  <si>
+    <t>QUIZZES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1829,11 +1830,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,33 +1851,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1899,12 +1900,12 @@
         <v>11.4</v>
       </c>
       <c r="H2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1927,12 +1928,12 @@
         <v>11.4</v>
       </c>
       <c r="H3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1955,12 +1956,12 @@
         <v>13.6</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1983,12 +1984,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2011,12 +2012,12 @@
         <v>9.6</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2039,12 +2040,12 @@
         <v>13.6</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2067,12 +2068,12 @@
         <v>8.4</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2095,12 +2096,12 @@
         <v>11.6</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2123,12 +2124,12 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -2151,12 +2152,12 @@
         <v>18.8</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2179,12 +2180,12 @@
         <v>12.8</v>
       </c>
       <c r="H12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -2207,12 +2208,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2235,12 +2236,12 @@
         <v>11.6</v>
       </c>
       <c r="H14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -2263,12 +2264,12 @@
         <v>14.4</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -2291,12 +2292,12 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -2319,12 +2320,12 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2347,12 +2348,12 @@
         <v>11.6</v>
       </c>
       <c r="H18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -2375,12 +2376,12 @@
         <v>10.8</v>
       </c>
       <c r="H19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2403,12 +2404,12 @@
         <v>12.4</v>
       </c>
       <c r="H20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -2431,12 +2432,12 @@
         <v>7</v>
       </c>
       <c r="H21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -2459,12 +2460,12 @@
         <v>8.4</v>
       </c>
       <c r="H22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -2487,12 +2488,12 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2515,12 +2516,12 @@
         <v>11.4</v>
       </c>
       <c r="H24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -2543,12 +2544,12 @@
         <v>13.8</v>
       </c>
       <c r="H25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2571,12 +2572,12 @@
         <v>8.6</v>
       </c>
       <c r="H26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -2599,12 +2600,12 @@
         <v>11.4</v>
       </c>
       <c r="H27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B28">
         <v>15</v>
@@ -2627,12 +2628,12 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2655,12 +2656,12 @@
         <v>4.8</v>
       </c>
       <c r="H29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -2683,12 +2684,12 @@
         <v>9.4</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -2711,12 +2712,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -2739,12 +2740,12 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2767,12 +2768,12 @@
         <v>10.8</v>
       </c>
       <c r="H33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -2795,12 +2796,12 @@
         <v>12.8</v>
       </c>
       <c r="H34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2823,12 +2824,12 @@
         <v>8.4</v>
       </c>
       <c r="H35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>14</v>
@@ -2851,12 +2852,12 @@
         <v>19.2</v>
       </c>
       <c r="H36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -2879,12 +2880,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -2907,12 +2908,12 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2935,12 +2936,12 @@
         <v>6.8</v>
       </c>
       <c r="H39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B40">
         <v>11</v>
@@ -2963,12 +2964,12 @@
         <v>11.4</v>
       </c>
       <c r="H40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B41">
         <v>13</v>
@@ -2991,12 +2992,12 @@
         <v>11.6</v>
       </c>
       <c r="H41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -3019,12 +3020,12 @@
         <v>11.6</v>
       </c>
       <c r="H42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -3047,12 +3048,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3075,12 +3076,12 @@
         <v>12.8</v>
       </c>
       <c r="H44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -3103,12 +3104,12 @@
         <v>13.6</v>
       </c>
       <c r="H45" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -3131,12 +3132,12 @@
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -3159,12 +3160,12 @@
         <v>11.4</v>
       </c>
       <c r="H47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B48">
         <v>11</v>
@@ -3187,12 +3188,12 @@
         <v>11.8</v>
       </c>
       <c r="H48" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -3215,12 +3216,12 @@
         <v>12.8</v>
       </c>
       <c r="H49" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -3243,12 +3244,12 @@
         <v>9.4</v>
       </c>
       <c r="H50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B51">
         <v>14</v>
@@ -3271,12 +3272,12 @@
         <v>10.8</v>
       </c>
       <c r="H51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -3299,12 +3300,12 @@
         <v>11.6</v>
       </c>
       <c r="H52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3327,12 +3328,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H53" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3355,12 +3356,12 @@
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3383,12 +3384,12 @@
         <v>12.8</v>
       </c>
       <c r="H55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -3411,12 +3412,12 @@
         <v>11.2</v>
       </c>
       <c r="H56" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -3439,12 +3440,12 @@
         <v>8.6</v>
       </c>
       <c r="H57" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -3467,12 +3468,12 @@
         <v>15.6</v>
       </c>
       <c r="H58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3495,12 +3496,12 @@
         <v>5.6</v>
       </c>
       <c r="H59" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3523,12 +3524,12 @@
         <v>5.2</v>
       </c>
       <c r="H60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -3551,12 +3552,12 @@
         <v>5.6</v>
       </c>
       <c r="H61" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -3579,12 +3580,12 @@
         <v>11.2</v>
       </c>
       <c r="H62" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -3607,12 +3608,12 @@
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -3635,12 +3636,12 @@
         <v>7.2</v>
       </c>
       <c r="H64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B65">
         <v>2</v>
@@ -3663,12 +3664,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -3691,12 +3692,12 @@
         <v>13.2</v>
       </c>
       <c r="H66" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3719,12 +3720,12 @@
         <v>11.6</v>
       </c>
       <c r="H67" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -3747,12 +3748,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69">
         <v>11</v>
@@ -3775,12 +3776,12 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H69" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -3803,12 +3804,12 @@
         <v>11.6</v>
       </c>
       <c r="H70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71">
         <v>10</v>
@@ -3831,12 +3832,12 @@
         <v>10.8</v>
       </c>
       <c r="H71" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -3859,12 +3860,12 @@
         <v>5.6</v>
       </c>
       <c r="H72" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3887,12 +3888,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H73" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -3915,12 +3916,12 @@
         <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B75">
         <v>13</v>
@@ -3943,12 +3944,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -3971,12 +3972,12 @@
         <v>7.6</v>
       </c>
       <c r="H76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -3999,12 +4000,12 @@
         <v>7.2</v>
       </c>
       <c r="H77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B78">
         <v>9</v>
@@ -4027,12 +4028,12 @@
         <v>13.8</v>
       </c>
       <c r="H78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>11</v>
@@ -4055,12 +4056,12 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -4083,12 +4084,12 @@
         <v>5.6</v>
       </c>
       <c r="H80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B81">
         <v>13</v>
@@ -4111,12 +4112,12 @@
         <v>11.8</v>
       </c>
       <c r="H81" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -4139,12 +4140,12 @@
         <v>7.8</v>
       </c>
       <c r="H82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -4167,12 +4168,12 @@
         <v>10.8</v>
       </c>
       <c r="H83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>6</v>
@@ -4195,12 +4196,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4223,12 +4224,12 @@
         <v>6.2</v>
       </c>
       <c r="H85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86">
         <v>12</v>
@@ -4251,12 +4252,12 @@
         <v>11.4</v>
       </c>
       <c r="H86" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -4279,12 +4280,12 @@
         <v>9.6</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4307,12 +4308,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H88" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -4335,12 +4336,12 @@
         <v>6.4</v>
       </c>
       <c r="H89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4363,12 +4364,12 @@
         <v>6.2</v>
       </c>
       <c r="H90" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B91">
         <v>30</v>
@@ -4391,12 +4392,12 @@
         <v>16.600000000000001</v>
       </c>
       <c r="H91" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -4419,12 +4420,12 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -4447,12 +4448,12 @@
         <v>15.2</v>
       </c>
       <c r="H93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -4475,12 +4476,12 @@
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -4503,12 +4504,12 @@
         <v>8.6</v>
       </c>
       <c r="H95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -4531,12 +4532,12 @@
         <v>8.4</v>
       </c>
       <c r="H96" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -4559,12 +4560,12 @@
         <v>8.6</v>
       </c>
       <c r="H97" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4587,12 +4588,12 @@
         <v>8.4</v>
       </c>
       <c r="H98" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -4615,12 +4616,12 @@
         <v>11.6</v>
       </c>
       <c r="H99" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B100">
         <v>11</v>
@@ -4643,12 +4644,12 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -4671,12 +4672,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H101" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -4699,12 +4700,12 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B103">
         <v>14</v>
@@ -4727,12 +4728,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4755,12 +4756,12 @@
         <v>9.6</v>
       </c>
       <c r="H104" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -4783,12 +4784,12 @@
         <v>15.6</v>
       </c>
       <c r="H105" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B106">
         <v>12</v>
@@ -4811,12 +4812,12 @@
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4839,12 +4840,12 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B108">
         <v>11</v>
@@ -4867,12 +4868,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B109">
         <v>14</v>
@@ -4895,12 +4896,12 @@
         <v>7.6</v>
       </c>
       <c r="H109" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -4923,12 +4924,12 @@
         <v>7</v>
       </c>
       <c r="H110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B111">
         <v>11</v>
@@ -4951,12 +4952,12 @@
         <v>11.6</v>
       </c>
       <c r="H111" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -4979,12 +4980,12 @@
         <v>11.4</v>
       </c>
       <c r="H112" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113">
         <v>9</v>
@@ -5007,12 +5008,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H113" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B114">
         <v>13</v>
@@ -5035,12 +5036,12 @@
         <v>8.4</v>
       </c>
       <c r="H114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5063,12 +5064,12 @@
         <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B116">
         <v>13</v>
@@ -5091,12 +5092,12 @@
         <v>17</v>
       </c>
       <c r="H116" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5119,12 +5120,12 @@
         <v>6.8</v>
       </c>
       <c r="H117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B118">
         <v>12</v>
@@ -5147,12 +5148,12 @@
         <v>5.8</v>
       </c>
       <c r="H118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B119">
         <v>9</v>
@@ -5175,12 +5176,12 @@
         <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B120">
         <v>15</v>
@@ -5203,12 +5204,12 @@
         <v>11.6</v>
       </c>
       <c r="H120" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B121">
         <v>9</v>
@@ -5231,12 +5232,12 @@
         <v>14.8</v>
       </c>
       <c r="H121" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -5259,12 +5260,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H122" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B123">
         <v>11</v>
@@ -5287,12 +5288,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H123" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5315,12 +5316,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H124" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5343,12 +5344,12 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>14</v>
@@ -5371,12 +5372,12 @@
         <v>11.6</v>
       </c>
       <c r="H126" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5399,12 +5400,12 @@
         <v>13.6</v>
       </c>
       <c r="H127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>10</v>
@@ -5427,12 +5428,12 @@
         <v>8.4</v>
       </c>
       <c r="H128" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B129">
         <v>12</v>
@@ -5455,12 +5456,12 @@
         <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>14</v>
@@ -5483,12 +5484,12 @@
         <v>8.4</v>
       </c>
       <c r="H130" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>9</v>
@@ -5511,12 +5512,12 @@
         <v>8.4</v>
       </c>
       <c r="H131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>10</v>
@@ -5539,12 +5540,12 @@
         <v>11.4</v>
       </c>
       <c r="H132" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B133">
         <v>12</v>
@@ -5567,12 +5568,12 @@
         <v>16.2</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -5595,12 +5596,12 @@
         <v>6.4</v>
       </c>
       <c r="H134" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B135">
         <v>15</v>
@@ -5623,12 +5624,12 @@
         <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B136">
         <v>13</v>
@@ -5651,12 +5652,12 @@
         <v>12</v>
       </c>
       <c r="H136" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B137">
         <v>13</v>
@@ -5679,12 +5680,12 @@
         <v>12</v>
       </c>
       <c r="H137" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B138">
         <v>6</v>
@@ -5707,12 +5708,12 @@
         <v>11.6</v>
       </c>
       <c r="H138" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B139">
         <v>10</v>
@@ -5735,12 +5736,12 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140">
         <v>8</v>
@@ -5763,12 +5764,12 @@
         <v>11.4</v>
       </c>
       <c r="H140" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>14</v>
@@ -5791,12 +5792,12 @@
         <v>18.8</v>
       </c>
       <c r="H141" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B142">
         <v>6</v>
@@ -5819,12 +5820,12 @@
         <v>12.8</v>
       </c>
       <c r="H142" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B143">
         <v>9</v>
@@ -5847,12 +5848,12 @@
         <v>12.8</v>
       </c>
       <c r="H143" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B144">
         <v>7</v>
@@ -5875,12 +5876,12 @@
         <v>11.4</v>
       </c>
       <c r="H144" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B145">
         <v>14</v>
@@ -5903,12 +5904,12 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -5931,12 +5932,12 @@
         <v>11.2</v>
       </c>
       <c r="H146" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B147">
         <v>30</v>
@@ -5959,12 +5960,12 @@
         <v>16.600000000000001</v>
       </c>
       <c r="H147" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -5987,12 +5988,12 @@
         <v>7.6</v>
       </c>
       <c r="H148" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B149">
         <v>15</v>
@@ -6015,12 +6016,12 @@
         <v>11.6</v>
       </c>
       <c r="H149" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -6043,12 +6044,12 @@
         <v>11.8</v>
       </c>
       <c r="H150" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -6071,12 +6072,12 @@
         <v>6.8</v>
       </c>
       <c r="H151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6099,12 +6100,12 @@
         <v>6.2</v>
       </c>
       <c r="H152" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B153">
         <v>12</v>
@@ -6127,12 +6128,12 @@
         <v>11.4</v>
       </c>
       <c r="H153" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B154">
         <v>15</v>
@@ -6155,12 +6156,12 @@
         <v>15.2</v>
       </c>
       <c r="H154" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B155">
         <v>11</v>
@@ -6183,12 +6184,12 @@
         <v>11.6</v>
       </c>
       <c r="H155" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B156">
         <v>9</v>
@@ -6211,12 +6212,12 @@
         <v>11.6</v>
       </c>
       <c r="H156" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -6239,12 +6240,12 @@
         <v>12.8</v>
       </c>
       <c r="H157" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B158">
         <v>13</v>
@@ -6267,12 +6268,12 @@
         <v>17.8</v>
       </c>
       <c r="H158" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B159">
         <v>13</v>
@@ -6295,12 +6296,12 @@
         <v>11.6</v>
       </c>
       <c r="H159" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6323,12 +6324,12 @@
         <v>11.2</v>
       </c>
       <c r="H160" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -6351,12 +6352,12 @@
         <v>12</v>
       </c>
       <c r="H161" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -6379,12 +6380,12 @@
         <v>7</v>
       </c>
       <c r="H162" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -6407,12 +6408,12 @@
         <v>10.4</v>
       </c>
       <c r="H163" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -6435,12 +6436,12 @@
         <v>11.6</v>
       </c>
       <c r="H164" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B165">
         <v>6</v>
@@ -6463,12 +6464,12 @@
         <v>11.6</v>
       </c>
       <c r="H165" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B166">
         <v>12</v>
@@ -6491,12 +6492,12 @@
         <v>14.8</v>
       </c>
       <c r="H166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -6519,12 +6520,12 @@
         <v>11.6</v>
       </c>
       <c r="H167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B168">
         <v>10</v>
@@ -6547,12 +6548,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B169">
         <v>11</v>
@@ -6575,12 +6576,12 @@
         <v>11.6</v>
       </c>
       <c r="H169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B170">
         <v>15</v>
@@ -6603,12 +6604,12 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H170" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -6631,12 +6632,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B172">
         <v>15</v>
@@ -6659,12 +6660,12 @@
         <v>11.6</v>
       </c>
       <c r="H172" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B173">
         <v>13</v>
@@ -6687,12 +6688,12 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H173" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B174">
         <v>14</v>
@@ -6715,12 +6716,12 @@
         <v>19.2</v>
       </c>
       <c r="H174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -6743,12 +6744,12 @@
         <v>10.4</v>
       </c>
       <c r="H175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B176">
         <v>12</v>
@@ -6771,12 +6772,12 @@
         <v>12.4</v>
       </c>
       <c r="H176" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B177">
         <v>6</v>
@@ -6799,12 +6800,12 @@
         <v>15.6</v>
       </c>
       <c r="H177" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>12</v>
@@ -6827,12 +6828,12 @@
         <v>12</v>
       </c>
       <c r="H178" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B179">
         <v>10</v>
@@ -6855,12 +6856,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H179" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B180">
         <v>5</v>
@@ -6883,12 +6884,12 @@
         <v>12</v>
       </c>
       <c r="H180" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B181">
         <v>11</v>
@@ -6911,12 +6912,12 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H181" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B182">
         <v>15</v>
@@ -6939,12 +6940,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H182" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -6967,12 +6968,12 @@
         <v>8.4</v>
       </c>
       <c r="H183" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B184">
         <v>15</v>
@@ -6995,12 +6996,12 @@
         <v>15.2</v>
       </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -7023,12 +7024,12 @@
         <v>12.8</v>
       </c>
       <c r="H185" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B186">
         <v>10</v>
@@ -7051,12 +7052,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H186" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B187">
         <v>11</v>
@@ -7079,12 +7080,12 @@
         <v>8.4</v>
       </c>
       <c r="H187" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B188">
         <v>12</v>
@@ -7107,12 +7108,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H188" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B189">
         <v>9</v>
@@ -7135,12 +7136,12 @@
         <v>9.4</v>
       </c>
       <c r="H189" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B190">
         <v>12</v>
@@ -7163,12 +7164,12 @@
         <v>10.8</v>
       </c>
       <c r="H190" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B191">
         <v>13</v>
@@ -7191,12 +7192,12 @@
         <v>17.8</v>
       </c>
       <c r="H191" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B192">
         <v>9</v>
@@ -7219,12 +7220,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H192" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B193">
         <v>12</v>
@@ -7247,12 +7248,12 @@
         <v>9.4</v>
       </c>
       <c r="H193" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B194">
         <v>6</v>
@@ -7275,12 +7276,12 @@
         <v>11.4</v>
       </c>
       <c r="H194" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B195">
         <v>8</v>
@@ -7303,12 +7304,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H195" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B196">
         <v>10</v>
@@ -7331,12 +7332,12 @@
         <v>11.6</v>
       </c>
       <c r="H196" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B197">
         <v>11</v>
@@ -7359,12 +7360,12 @@
         <v>18.600000000000001</v>
       </c>
       <c r="H197" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -7387,12 +7388,12 @@
         <v>10.4</v>
       </c>
       <c r="H198" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B199">
         <v>11</v>
@@ -7415,12 +7416,12 @@
         <v>11.2</v>
       </c>
       <c r="H199" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B200">
         <v>2</v>
@@ -7443,12 +7444,12 @@
         <v>12.4</v>
       </c>
       <c r="H200" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -7471,12 +7472,12 @@
         <v>6.8</v>
       </c>
       <c r="H201" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B202">
         <v>15</v>
@@ -7499,12 +7500,12 @@
         <v>20</v>
       </c>
       <c r="H202" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -7527,12 +7528,12 @@
         <v>12.8</v>
       </c>
       <c r="H203" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -7555,12 +7556,12 @@
         <v>5.6</v>
       </c>
       <c r="H204" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -7583,12 +7584,12 @@
         <v>5.6</v>
       </c>
       <c r="H205" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B206">
         <v>7</v>
@@ -7611,12 +7612,12 @@
         <v>11.6</v>
       </c>
       <c r="H206" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B207">
         <v>15</v>
@@ -7639,12 +7640,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H207" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B208">
         <v>15</v>
@@ -7667,12 +7668,12 @@
         <v>11.6</v>
       </c>
       <c r="H208" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -7695,12 +7696,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H209" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -7723,12 +7724,12 @@
         <v>9.6</v>
       </c>
       <c r="H210" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B211">
         <v>7</v>
@@ -7751,12 +7752,12 @@
         <v>11.4</v>
       </c>
       <c r="H211" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B212">
         <v>5</v>
@@ -7779,12 +7780,12 @@
         <v>8</v>
       </c>
       <c r="H212" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B213">
         <v>9</v>
@@ -7807,12 +7808,12 @@
         <v>8.4</v>
       </c>
       <c r="H213" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B214">
         <v>10</v>
@@ -7835,12 +7836,12 @@
         <v>15.6</v>
       </c>
       <c r="H214" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B215">
         <v>8</v>
@@ -7863,12 +7864,12 @@
         <v>7.6</v>
       </c>
       <c r="H215" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B216">
         <v>8</v>
@@ -7891,12 +7892,12 @@
         <v>11.4</v>
       </c>
       <c r="H216" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B217">
         <v>9</v>
@@ -7919,12 +7920,12 @@
         <v>8.4</v>
       </c>
       <c r="H217" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -7947,12 +7948,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H218" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B219">
         <v>11</v>
@@ -7975,12 +7976,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H219" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B220">
         <v>7</v>
@@ -8003,12 +8004,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H220" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B221">
         <v>11</v>
@@ -8031,12 +8032,12 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8059,12 +8060,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H222" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B223">
         <v>5</v>
@@ -8087,12 +8088,12 @@
         <v>11.6</v>
       </c>
       <c r="H223" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B224">
         <v>10</v>
@@ -8115,12 +8116,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H224" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B225">
         <v>7</v>
@@ -8143,12 +8144,12 @@
         <v>7.8</v>
       </c>
       <c r="H225" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B226">
         <v>15</v>
@@ -8171,12 +8172,12 @@
         <v>8.4</v>
       </c>
       <c r="H226" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -8199,12 +8200,12 @@
         <v>9.6</v>
       </c>
       <c r="H227" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B228">
         <v>11</v>
@@ -8227,12 +8228,12 @@
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B229">
         <v>11</v>
@@ -8255,12 +8256,12 @@
         <v>18.600000000000001</v>
       </c>
       <c r="H229" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B230">
         <v>3</v>
@@ -8283,12 +8284,12 @@
         <v>11.2</v>
       </c>
       <c r="H230" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B231">
         <v>14</v>
@@ -8311,12 +8312,12 @@
         <v>10.8</v>
       </c>
       <c r="H231" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B232">
         <v>7</v>
@@ -8339,12 +8340,12 @@
         <v>8.4</v>
       </c>
       <c r="H232" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -8367,12 +8368,12 @@
         <v>9.6</v>
       </c>
       <c r="H233" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B234">
         <v>13</v>
@@ -8395,12 +8396,12 @@
         <v>7.2</v>
       </c>
       <c r="H234" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B235">
         <v>6</v>
@@ -8423,12 +8424,12 @@
         <v>7.6</v>
       </c>
       <c r="H235" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B236">
         <v>7</v>
@@ -8451,12 +8452,12 @@
         <v>8.4</v>
       </c>
       <c r="H236" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B237">
         <v>4</v>
@@ -8479,12 +8480,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H237" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B238">
         <v>12</v>
@@ -8507,12 +8508,12 @@
         <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B239">
         <v>5</v>
@@ -8535,12 +8536,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H239" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B240">
         <v>6</v>
@@ -8563,12 +8564,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H240" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -8591,12 +8592,12 @@
         <v>10</v>
       </c>
       <c r="H241" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B242">
         <v>10</v>
@@ -8619,12 +8620,12 @@
         <v>11.4</v>
       </c>
       <c r="H242" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B243">
         <v>10</v>
@@ -8647,12 +8648,12 @@
         <v>11.6</v>
       </c>
       <c r="H243" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B244">
         <v>6</v>
@@ -8675,12 +8676,12 @@
         <v>6</v>
       </c>
       <c r="H244" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B245">
         <v>11</v>
@@ -8703,12 +8704,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H245" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -8731,12 +8732,12 @@
         <v>5.6</v>
       </c>
       <c r="H246" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B247">
         <v>13</v>
@@ -8759,12 +8760,12 @@
         <v>7.2</v>
       </c>
       <c r="H247" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -8787,12 +8788,12 @@
         <v>4.8</v>
       </c>
       <c r="H248" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B249">
         <v>11</v>
@@ -8815,12 +8816,12 @@
         <v>11.6</v>
       </c>
       <c r="H249" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B250">
         <v>11</v>
@@ -8843,12 +8844,12 @@
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B251">
         <v>5</v>
@@ -8871,12 +8872,12 @@
         <v>11.6</v>
       </c>
       <c r="H251" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B252">
         <v>13</v>
@@ -8899,12 +8900,12 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H252" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B253">
         <v>8</v>
@@ -8927,12 +8928,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H253" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B254">
         <v>4</v>
@@ -8955,12 +8956,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H254" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -8983,12 +8984,12 @@
         <v>13.2</v>
       </c>
       <c r="H255" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B256">
         <v>5</v>
@@ -9011,12 +9012,12 @@
         <v>11.6</v>
       </c>
       <c r="H256" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B257">
         <v>6</v>
@@ -9039,12 +9040,12 @@
         <v>8.4</v>
       </c>
       <c r="H257" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B258">
         <v>9</v>
@@ -9067,12 +9068,12 @@
         <v>10</v>
       </c>
       <c r="H258" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B259">
         <v>10</v>
@@ -9095,12 +9096,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H259" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B260">
         <v>9</v>
@@ -9123,12 +9124,12 @@
         <v>9.4</v>
       </c>
       <c r="H260" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B261">
         <v>12</v>
@@ -9151,12 +9152,12 @@
         <v>12.4</v>
       </c>
       <c r="H261" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -9179,12 +9180,12 @@
         <v>12.4</v>
       </c>
       <c r="H262" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B263">
         <v>4</v>
@@ -9207,12 +9208,12 @@
         <v>8</v>
       </c>
       <c r="H263" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B264">
         <v>6</v>
@@ -9235,12 +9236,12 @@
         <v>7.8</v>
       </c>
       <c r="H264" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B265">
         <v>8</v>
@@ -9263,12 +9264,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H265" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B266">
         <v>8</v>
@@ -9291,12 +9292,12 @@
         <v>7.6</v>
       </c>
       <c r="H266" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -9319,12 +9320,12 @@
         <v>7.2</v>
       </c>
       <c r="H267" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B268">
         <v>14</v>
@@ -9347,12 +9348,12 @@
         <v>18.8</v>
       </c>
       <c r="H268" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B269">
         <v>4</v>
@@ -9375,12 +9376,12 @@
         <v>6.2</v>
       </c>
       <c r="H269" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -9403,12 +9404,12 @@
         <v>5.6</v>
       </c>
       <c r="H270" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B271">
         <v>4</v>
@@ -9431,12 +9432,12 @@
         <v>11.6</v>
       </c>
       <c r="H271" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -9459,12 +9460,12 @@
         <v>7.8</v>
       </c>
       <c r="H272" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B273">
         <v>12</v>
@@ -9487,12 +9488,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H273" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B274">
         <v>9</v>
@@ -9515,12 +9516,12 @@
         <v>15.2</v>
       </c>
       <c r="H274" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B275">
         <v>6</v>
@@ -9543,12 +9544,12 @@
         <v>11.6</v>
       </c>
       <c r="H275" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B276">
         <v>11</v>
@@ -9571,12 +9572,12 @@
         <v>10</v>
       </c>
       <c r="H276" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -9599,12 +9600,12 @@
         <v>11.6</v>
       </c>
       <c r="H277" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B278">
         <v>9</v>
@@ -9627,12 +9628,12 @@
         <v>11.6</v>
       </c>
       <c r="H278" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B279">
         <v>8</v>
@@ -9655,12 +9656,12 @@
         <v>9.4</v>
       </c>
       <c r="H279" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B280">
         <v>12</v>
@@ -9683,12 +9684,12 @@
         <v>12.6</v>
       </c>
       <c r="H280" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B281">
         <v>13</v>
@@ -9711,12 +9712,12 @@
         <v>18.399999999999999</v>
       </c>
       <c r="H281" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B282">
         <v>13</v>
@@ -9739,12 +9740,12 @@
         <v>12.8</v>
       </c>
       <c r="H282" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B283">
         <v>12</v>
@@ -9767,12 +9768,12 @@
         <v>8.4</v>
       </c>
       <c r="H283" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B284">
         <v>15</v>
@@ -9795,12 +9796,12 @@
         <v>20</v>
       </c>
       <c r="H284" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B285">
         <v>13</v>
@@ -9823,12 +9824,12 @@
         <v>11.6</v>
       </c>
       <c r="H285" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B286">
         <v>12</v>
@@ -9851,12 +9852,12 @@
         <v>14.8</v>
       </c>
       <c r="H286" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -9879,12 +9880,12 @@
         <v>10.4</v>
       </c>
       <c r="H287" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B288">
         <v>10</v>
@@ -9907,12 +9908,12 @@
         <v>15.6</v>
       </c>
       <c r="H288" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B289">
         <v>8</v>
@@ -9935,12 +9936,12 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H289" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B290">
         <v>3</v>
@@ -9963,12 +9964,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H290" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -9991,12 +9992,12 @@
         <v>5.6</v>
       </c>
       <c r="H291" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B292">
         <v>12</v>
@@ -10019,12 +10020,12 @@
         <v>11.6</v>
       </c>
       <c r="H292" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -10047,12 +10048,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H293" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B294">
         <v>4</v>
@@ -10075,12 +10076,12 @@
         <v>6</v>
       </c>
       <c r="H294" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B295">
         <v>9</v>
@@ -10103,12 +10104,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H295" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B296">
         <v>5</v>
@@ -10131,12 +10132,12 @@
         <v>8</v>
       </c>
       <c r="H296" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -10159,12 +10160,12 @@
         <v>7.2</v>
       </c>
       <c r="H297" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -10187,12 +10188,12 @@
         <v>10.4</v>
       </c>
       <c r="H298" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B299">
         <v>13</v>
@@ -10215,12 +10216,12 @@
         <v>11.8</v>
       </c>
       <c r="H299" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B300">
         <v>7</v>
@@ -10243,12 +10244,12 @@
         <v>8.4</v>
       </c>
       <c r="H300" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B301">
         <v>15</v>
@@ -10271,12 +10272,12 @@
         <v>20</v>
       </c>
       <c r="H301" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B302">
         <v>12</v>
@@ -10299,12 +10300,12 @@
         <v>5.8</v>
       </c>
       <c r="H302" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B303">
         <v>14</v>
@@ -10327,12 +10328,12 @@
         <v>11.6</v>
       </c>
       <c r="H303" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B304">
         <v>9</v>
@@ -10355,12 +10356,12 @@
         <v>14.8</v>
       </c>
       <c r="H304" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B305">
         <v>13</v>
@@ -10383,12 +10384,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H305" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -10411,12 +10412,12 @@
         <v>6.4</v>
       </c>
       <c r="H306" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B307">
         <v>8</v>
@@ -10439,12 +10440,12 @@
         <v>12.8</v>
       </c>
       <c r="H307" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B308">
         <v>8</v>
@@ -10467,12 +10468,12 @@
         <v>12.8</v>
       </c>
       <c r="H308" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B309">
         <v>10</v>
@@ -10495,12 +10496,12 @@
         <v>10.4</v>
       </c>
       <c r="H309" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -10523,12 +10524,12 @@
         <v>10.4</v>
       </c>
       <c r="H310" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B311">
         <v>4</v>
@@ -10551,12 +10552,12 @@
         <v>5.6</v>
       </c>
       <c r="H311" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -10579,12 +10580,12 @@
         <v>6.4</v>
       </c>
       <c r="H312" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B313">
         <v>8</v>
@@ -10607,12 +10608,12 @@
         <v>14.4</v>
       </c>
       <c r="H313" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B314">
         <v>7</v>
@@ -10635,12 +10636,12 @@
         <v>8</v>
       </c>
       <c r="H314" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -10663,12 +10664,12 @@
         <v>10.4</v>
       </c>
       <c r="H315" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B316">
         <v>13</v>
@@ -10691,12 +10692,12 @@
         <v>12</v>
       </c>
       <c r="H316" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B317">
         <v>14</v>
@@ -10719,12 +10720,12 @@
         <v>18.8</v>
       </c>
       <c r="H317" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B318">
         <v>6</v>
@@ -10747,12 +10748,12 @@
         <v>15.6</v>
       </c>
       <c r="H318" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -10775,12 +10776,12 @@
         <v>11.6</v>
       </c>
       <c r="H319" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -10803,12 +10804,12 @@
         <v>9.6</v>
       </c>
       <c r="H320" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B321">
         <v>14</v>
@@ -10831,12 +10832,12 @@
         <v>8</v>
       </c>
       <c r="H321" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B322">
         <v>12</v>
@@ -10859,12 +10860,12 @@
         <v>12.6</v>
       </c>
       <c r="H322" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B323">
         <v>3</v>
@@ -10887,12 +10888,12 @@
         <v>5.2</v>
       </c>
       <c r="H323" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B324">
         <v>3</v>
@@ -10915,12 +10916,12 @@
         <v>10.4</v>
       </c>
       <c r="H324" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B325">
         <v>12</v>
@@ -10943,12 +10944,12 @@
         <v>12.8</v>
       </c>
       <c r="H325" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B326">
         <v>12</v>
@@ -10971,12 +10972,12 @@
         <v>11.6</v>
       </c>
       <c r="H326" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B327">
         <v>3</v>
@@ -10999,7 +11000,7 @@
         <v>11.2</v>
       </c>
       <c r="H327" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
